--- a/data/trans_dic/P38C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P38C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>85,92; 90,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>86,05; 91,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>91,11; 94,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>89,73; 94,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>89,46; 92,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>88,99; 92,74</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,29%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>77,22; 80,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>69,58; 78,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>84,04; 87,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>81,01; 85,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>81,22; 83,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>75,96; 81,34</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,61%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>76,47; 83,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>78,62; 85,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>80,09; 86,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>85,63; 90,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>79,64; 84,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>83,33; 87,9</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>79,76; 82,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,19; 80,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,19; 88,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>84,67; 87,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,74; 85,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>80,48; 84,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Estudios-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>91,56%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,05; 91,6</t>
+          <t>86,3; 91,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,73; 94,64</t>
+          <t>90,59; 94,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,99; 92,74</t>
+          <t>89,53; 93,05</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>76,1%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,58; 78,01</t>
+          <t>50,74; 78,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,01; 85,92</t>
+          <t>74,87; 87,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,96; 81,34</t>
+          <t>63,41; 81,7</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>85,72%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,62; 85,77</t>
+          <t>77,94; 85,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,63; 90,7</t>
+          <t>86,14; 91,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,33; 87,9</t>
+          <t>83,04; 88,02</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>80,64%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,19; 80,88</t>
+          <t>58,1; 80,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,67; 87,87</t>
+          <t>79,47; 88,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,48; 84,06</t>
+          <t>71,08; 84,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,92; 90,6</t>
+          <t>86,11; 90,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,3; 91,86</t>
+          <t>86,18; 91,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,11; 94,3</t>
+          <t>90,79; 94,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,59; 94,94</t>
+          <t>89,91; 94,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,46; 92,29</t>
+          <t>89,37; 92,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,53; 93,05</t>
+          <t>89,67; 92,94</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,22; 80,97</t>
+          <t>77,22; 80,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 78,19</t>
+          <t>48,68; 78,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,04; 87,29</t>
+          <t>84,07; 87,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,87; 87,43</t>
+          <t>74,78; 87,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,22; 83,53</t>
+          <t>81,13; 83,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,41; 81,7</t>
+          <t>63,73; 81,79</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,47; 83,86</t>
+          <t>76,93; 83,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,94; 85,92</t>
+          <t>77,72; 86,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,09; 86,21</t>
+          <t>80,09; 86,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,14; 91,1</t>
+          <t>86,07; 91,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,64; 84,27</t>
+          <t>79,61; 84,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,04; 88,02</t>
+          <t>82,79; 87,86</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,76; 82,74</t>
+          <t>80,04; 82,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,1; 80,94</t>
+          <t>57,66; 81,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,19; 88,57</t>
+          <t>86,25; 88,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,47; 88,62</t>
+          <t>79,69; 88,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,74; 85,5</t>
+          <t>83,61; 85,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,08; 84,13</t>
+          <t>70,75; 84,3</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de glucosal por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>662414</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>459392</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>919558</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>703160</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1581971</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1162553</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>645074; 678560</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>443775; 471200</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>899428; 934726</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>678600; 715486</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1554804; 1603855</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1138613; 1180105</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4206</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1621985</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1583209</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1697365</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1856529</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3319350</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3439739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1581564; 1657792</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1114125; 1788101</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1663506; 1725127</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1668283; 1949538</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3266912; 3369775</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2880510; 3696945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1507</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>437795</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>533745</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>456344</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>586721</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>894139</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1120466</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>418460; 456195</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>502525; 557631</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>437366; 470995</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>568475; 602969</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>867786; 917132</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1082156; 1148450</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2862</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5476</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7691</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2722195</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2576347</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3073267</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3146410</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5795461</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5722758</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2674405; 2767854</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1989667; 2797227</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3032037; 3112320</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2905660; 3240253</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5732513; 5857657</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5020796; 5982340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>